--- a/pc.xlsx
+++ b/pc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panzer/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panzer/Raise/citemap/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t xml:space="preserve">conf </t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>SCAM</t>
+  </si>
+  <si>
+    <t>FASE</t>
+  </si>
+  <si>
+    <t>CSMR</t>
   </si>
 </sst>
 </file>
@@ -97,6 +106,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA5FB6A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -182,15 +196,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pc!$A$2</c:f>
+              <c:f>pc!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WCRE </c:v>
+                  <c:v>ICSE </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -198,7 +212,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="A5FB6A"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -281,7 +295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pc!$B$2:$V$2</c:f>
+              <c:f>pc!$B$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -289,64 +303,64 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,690 +540,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="6"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>pc!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPCE </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>pc!$B$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>pc!$B$4:$V$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>pc!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSR  </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>pc!$B$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>pc!$B$5:$V$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>pc!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICPC </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>pc!$B$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>pc!$B$6:$V$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>47.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>pc!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICSE </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>pc!$B$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>pc!$B$7:$V$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>pc!$A$8</c:f>
@@ -1381,7 +713,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>pc!$A$9</c:f>
@@ -1551,6 +883,1160 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WCRE </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICPC </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPCE </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSR  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$B$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="8">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1560,11 +2046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1207740752"/>
-        <c:axId val="-1879505776"/>
+        <c:axId val="-2006547008"/>
+        <c:axId val="-2026181520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1207740752"/>
+        <c:axId val="-2006547008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1879505776"/>
+        <c:crossAx val="-2026181520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +2164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1879505776"/>
+        <c:axId val="-2026181520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +2278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1207740752"/>
+        <c:crossAx val="-2006547008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1873,7 +2359,1627 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PC paper % vs Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICSE </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="A5FB6A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSE  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASE  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICSM </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$9:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WCRE </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICPC </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSMR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPCE </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSR  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pc!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pc!$M$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pc!$M$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2026170096"/>
+        <c:axId val="-2005024848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2026170096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.505630890966215"/>
+              <c:y val="0.742463197535091"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2005024848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2005024848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PC Paper %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00551724137931034"/>
+              <c:y val="0.34687778158165"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2026170096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.166563748496955"/>
+          <c:y val="0.81612233253452"/>
+          <c:w val="0.822044916799193"/>
+          <c:h val="0.129529841378523"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2429,20 +4535,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2456,6 +5078,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2727,10 +5381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,6 +5998,159 @@
         <v>36</v>
       </c>
     </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>56</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>41</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>19</v>
+      </c>
+      <c r="T10">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>27</v>
+      </c>
+      <c r="V10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <v>18</v>
+      </c>
+      <c r="S11">
+        <v>19</v>
+      </c>
+      <c r="T11">
+        <v>13</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>46</v>
+      </c>
+      <c r="P12">
+        <v>36</v>
+      </c>
+      <c r="Q12">
+        <v>31</v>
+      </c>
+      <c r="R12">
+        <v>39</v>
+      </c>
+      <c r="S12">
+        <v>45</v>
+      </c>
+      <c r="T12">
+        <v>37</v>
+      </c>
+      <c r="U12">
+        <v>29</v>
+      </c>
+      <c r="V12">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
